--- a/html/Privathospitalssystemer - modtage_excel.XLSX
+++ b/html/Privathospitalssystemer - modtage_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618EC859-818F-472B-BF75-3F50CC999DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29652B-5AE8-482D-B6AF-085D4D846BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 12-05-2025'!$A$1:$K$35</definedName>
+    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 16-05-2025'!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Privathospitalssystemer - modtage_excel.XLSX
+++ b/html/Privathospitalssystemer - modtage_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE29652B-5AE8-482D-B6AF-085D4D846BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F3D4F4-DC51-4B42-9919-5FE6EB15B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 16-05-2025'!$A$1:$K$35</definedName>
+    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 02-12-2025'!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Privathospitalssystemer - modtage_excel.XLSX
+++ b/html/Privathospitalssystemer - modtage_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F3D4F4-DC51-4B42-9919-5FE6EB15B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D56B83-FB2B-42A9-AB54-9A131E5EC563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Privathospitalssystemer - modtage_excel.XLSX
+++ b/html/Privathospitalssystemer - modtage_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D56B83-FB2B-42A9-AB54-9A131E5EC563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B16297-DD4F-41F9-9EEF-8DFD283EF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 02-12-2025'!$A$1:$K$35</definedName>
+    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 05-12-2025'!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -592,9 +592,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -661,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -798,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -911,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>

--- a/html/Privathospitalssystemer - modtage_excel.XLSX
+++ b/html/Privathospitalssystemer - modtage_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B16297-DD4F-41F9-9EEF-8DFD283EF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71C074-186B-4A80-8810-85F63CA355CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 05-12-2025'!$A$1:$K$35</definedName>
+    <definedName name="Privathospitalssystemer___modtage">'Opdateret d. 19-12-2025'!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -592,9 +592,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -661,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -798,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -911,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
